--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-organization.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10607" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10607" uniqueCount="919">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1195,7 +1195,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="IDNST"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1312,7 +1312,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://interopsante.org/CodeSystem/fr-v2-0203</t>
+    <t>https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1457,7 +1457,7 @@
     <t>Organization.identifier:sirene.system</t>
   </si>
   <si>
-    <t>http://sirene.fr</t>
+    <t>https://sirene.fr</t>
   </si>
   <si>
     <t>Organization.identifier:sirene.value</t>
@@ -1532,7 +1532,7 @@
     <t>Organization.identifier:finess.system</t>
   </si>
   <si>
-    <t>http://finess.esante.gouv.fr</t>
+    <t>https://finess.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:finess.value</t>
@@ -1563,6 +1563,88 @@
   </si>
   <si>
     <t>Organization.identifier:adeliRang.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
+    &lt;code value="INTRN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:adeliRang.system</t>
+  </si>
+  <si>
+    <t>https://adelirang.esante.gouv.fr</t>
+  </si>
+  <si>
+    <t>Organization.identifier:adeliRang.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:adeliRang.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:adeliRang.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang</t>
+  </si>
+  <si>
+    <t>rppsRang</t>
+  </si>
+  <si>
+    <t>RPPS rang (11 chiffres RPPS + 2 chiffres RANG)</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.system</t>
+  </si>
+  <si>
+    <t>https://rppsrang.esante.gouv.fr</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:rppsRang.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantInterne</t>
+  </si>
+  <si>
+    <t>identifiantInterne</t>
+  </si>
+  <si>
+    <t>Identifiant interne à porté nationale des structures enregistrées au RPPS sans aucun identifiant métier.
+Il est composé de 14 chiffres.
+Il s’agit généralement de structures enregistrées temporairement par les ordres, en attente de vérification ou de changement d’identifiant.</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantInterne.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantInterne.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantInterne.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantInterne.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1571,80 +1653,6 @@
     &lt;code value="INTRN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Organization.identifier:adeliRang.system</t>
-  </si>
-  <si>
-    <t>https://adelirang.esante.gouv.fr</t>
-  </si>
-  <si>
-    <t>Organization.identifier:adeliRang.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:adeliRang.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:adeliRang.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang</t>
-  </si>
-  <si>
-    <t>rppsRang</t>
-  </si>
-  <si>
-    <t>RPPS rang (11 chiffres RPPS + 2 chiffres RANG)</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.system</t>
-  </si>
-  <si>
-    <t>https://rppsrang.esante.gouv.fr</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:rppsRang.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantInterne</t>
-  </si>
-  <si>
-    <t>identifiantInterne</t>
-  </si>
-  <si>
-    <t>Identifiant interne à porté nationale des structures enregistrées au RPPS sans aucun identifiant métier.
-Il est composé de 14 chiffres.
-Il s’agit généralement de structures enregistrées temporairement par les ordres, en attente de vérification ou de changement d’identifiant.</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantInterne.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantInterne.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantInterne.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantInterne.type</t>
   </si>
   <si>
     <t>Organization.identifier:identifiantInterne.system</t>
@@ -17010,7 +17018,7 @@
         <v>78</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>78</v>
@@ -17081,7 +17089,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>330</v>
@@ -17129,7 +17137,7 @@
         <v>78</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>335</v>
@@ -17200,7 +17208,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>340</v>
@@ -17317,7 +17325,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>349</v>
@@ -17434,7 +17442,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>358</v>
@@ -17551,10 +17559,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17580,67 +17588,67 @@
         <v>445</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q123" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF123" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q123" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17658,24 +17666,24 @@
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17701,16 +17709,16 @@
         <v>321</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
@@ -17738,16 +17746,16 @@
         <v>165</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
@@ -17757,7 +17765,7 @@
         <v>116</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17775,27 +17783,27 @@
         <v>78</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>78</v>
@@ -17820,16 +17828,16 @@
         <v>321</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>78</v>
@@ -17858,7 +17866,7 @@
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>78</v>
@@ -17876,7 +17884,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17894,24 +17902,24 @@
         <v>78</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18023,10 +18031,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18138,13 +18146,13 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="B128" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="C128" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>78</v>
@@ -18166,13 +18174,13 @@
         <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18255,10 +18263,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18370,10 +18378,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18485,10 +18493,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18528,7 +18536,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>78</v>
@@ -18602,10 +18610,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18646,7 +18654,7 @@
         <v>78</v>
       </c>
       <c r="S132" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T132" t="s" s="2">
         <v>78</v>
@@ -18665,7 +18673,7 @@
       </c>
       <c r="Y132" s="2"/>
       <c r="Z132" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>78</v>
@@ -18715,10 +18723,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18834,10 +18842,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18949,10 +18957,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19066,10 +19074,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19185,10 +19193,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19302,10 +19310,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19331,7 +19339,7 @@
         <v>175</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>430</v>
@@ -19419,10 +19427,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19536,10 +19544,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19655,10 +19663,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19774,13 +19782,13 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>78</v>
@@ -19805,16 +19813,16 @@
         <v>321</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>78</v>
@@ -19843,7 +19851,7 @@
       </c>
       <c r="Y142" s="2"/>
       <c r="Z142" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>78</v>
@@ -19861,7 +19869,7 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -19879,24 +19887,24 @@
         <v>78</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20008,10 +20016,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20125,10 +20133,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20244,10 +20252,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20359,10 +20367,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20476,10 +20484,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20595,10 +20603,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20712,10 +20720,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20741,7 +20749,7 @@
         <v>175</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>430</v>
@@ -20829,10 +20837,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20946,10 +20954,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21065,10 +21073,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21184,13 +21192,13 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>78</v>
@@ -21215,16 +21223,16 @@
         <v>321</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>78</v>
@@ -21253,7 +21261,7 @@
       </c>
       <c r="Y154" s="2"/>
       <c r="Z154" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>78</v>
@@ -21271,7 +21279,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -21289,24 +21297,24 @@
         <v>78</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21418,10 +21426,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21535,10 +21543,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21654,10 +21662,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21769,10 +21777,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21886,10 +21894,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22005,10 +22013,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22122,10 +22130,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22151,7 +22159,7 @@
         <v>175</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>430</v>
@@ -22239,10 +22247,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22356,10 +22364,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22475,10 +22483,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22594,13 +22602,13 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>78</v>
@@ -22625,16 +22633,16 @@
         <v>321</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>78</v>
@@ -22663,7 +22671,7 @@
       </c>
       <c r="Y166" s="2"/>
       <c r="Z166" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>78</v>
@@ -22681,7 +22689,7 @@
         <v>78</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -22696,27 +22704,27 @@
         <v>101</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22828,10 +22836,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22943,13 +22951,13 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>78</v>
@@ -22971,13 +22979,13 @@
         <v>78</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -23060,10 +23068,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23175,10 +23183,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23290,10 +23298,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23333,7 +23341,7 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>78</v>
@@ -23407,10 +23415,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23451,7 +23459,7 @@
         <v>78</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>78</v>
@@ -23470,7 +23478,7 @@
       </c>
       <c r="Y173" s="2"/>
       <c r="Z173" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>78</v>
@@ -23520,10 +23528,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23639,10 +23647,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23758,13 +23766,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>78</v>
@@ -23789,16 +23797,16 @@
         <v>321</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>78</v>
@@ -23827,7 +23835,7 @@
       </c>
       <c r="Y176" s="2"/>
       <c r="Z176" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>78</v>
@@ -23845,7 +23853,7 @@
         <v>78</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -23860,27 +23868,27 @@
         <v>101</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23992,10 +24000,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24107,13 +24115,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>78</v>
@@ -24135,13 +24143,13 @@
         <v>78</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -24224,10 +24232,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24339,10 +24347,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24454,10 +24462,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24497,7 +24505,7 @@
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>78</v>
@@ -24571,10 +24579,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24615,7 +24623,7 @@
         <v>78</v>
       </c>
       <c r="S183" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>78</v>
@@ -24634,7 +24642,7 @@
       </c>
       <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>78</v>
@@ -24684,10 +24692,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24803,10 +24811,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24922,13 +24930,13 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>78</v>
@@ -24953,16 +24961,16 @@
         <v>321</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>78</v>
@@ -24991,7 +24999,7 @@
       </c>
       <c r="Y186" s="2"/>
       <c r="Z186" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>78</v>
@@ -25009,7 +25017,7 @@
         <v>78</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>79</v>
@@ -25027,24 +25035,24 @@
         <v>78</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO186" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25156,10 +25164,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25271,13 +25279,13 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>78</v>
@@ -25299,13 +25307,13 @@
         <v>78</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -25388,10 +25396,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25503,10 +25511,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25618,10 +25626,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25661,7 +25669,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>78</v>
@@ -25735,10 +25743,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25779,7 +25787,7 @@
         <v>78</v>
       </c>
       <c r="S193" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T193" t="s" s="2">
         <v>78</v>
@@ -25798,7 +25806,7 @@
       </c>
       <c r="Y193" s="2"/>
       <c r="Z193" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>78</v>
@@ -25848,10 +25856,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25967,10 +25975,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26086,13 +26094,13 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>78</v>
@@ -26117,16 +26125,16 @@
         <v>321</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>78</v>
@@ -26154,10 +26162,10 @@
         <v>165</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>78</v>
@@ -26175,7 +26183,7 @@
         <v>78</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>
@@ -26193,24 +26201,24 @@
         <v>78</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26322,10 +26330,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26437,13 +26445,13 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D199" t="s" s="2">
         <v>78</v>
@@ -26465,13 +26473,13 @@
         <v>78</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -26554,10 +26562,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26669,10 +26677,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26784,10 +26792,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26827,7 +26835,7 @@
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>78</v>
@@ -26901,10 +26909,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26945,7 +26953,7 @@
         <v>78</v>
       </c>
       <c r="S203" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T203" t="s" s="2">
         <v>78</v>
@@ -26964,7 +26972,7 @@
       </c>
       <c r="Y203" s="2"/>
       <c r="Z203" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>78</v>
@@ -27014,10 +27022,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27133,10 +27141,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27252,10 +27260,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27281,16 +27289,16 @@
         <v>103</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>78</v>
@@ -27339,7 +27347,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -27354,16 +27362,16 @@
         <v>101</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>78</v>
@@ -27371,10 +27379,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27400,16 +27408,16 @@
         <v>103</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>78</v>
@@ -27458,7 +27466,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -27473,13 +27481,13 @@
         <v>101</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>78</v>
@@ -27490,10 +27498,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27516,19 +27524,19 @@
         <v>78</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>78</v>
@@ -27565,7 +27573,7 @@
         <v>78</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AC208" s="2"/>
       <c r="AD208" t="s" s="2">
@@ -27575,7 +27583,7 @@
         <v>116</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -27587,19 +27595,19 @@
         <v>207</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>78</v>
@@ -27607,10 +27615,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27722,10 +27730,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27839,13 +27847,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B211" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="B211" t="s" s="2">
-        <v>703</v>
-      </c>
       <c r="C211" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>78</v>
@@ -27867,13 +27875,13 @@
         <v>78</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -27956,10 +27964,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27985,10 +27993,10 @@
         <v>175</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28018,10 +28026,10 @@
         <v>315</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>78</v>
@@ -28039,7 +28047,7 @@
         <v>78</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -28048,7 +28056,7 @@
         <v>89</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>101</v>
@@ -28057,13 +28065,13 @@
         <v>78</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>78</v>
@@ -28071,10 +28079,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28100,16 +28108,16 @@
         <v>103</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>78</v>
@@ -28158,7 +28166,7 @@
         <v>78</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>79</v>
@@ -28176,10 +28184,10 @@
         <v>78</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>348</v>
@@ -28190,10 +28198,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28219,16 +28227,16 @@
         <v>175</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>78</v>
@@ -28256,10 +28264,10 @@
         <v>315</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>78</v>
@@ -28277,7 +28285,7 @@
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -28295,13 +28303,13 @@
         <v>78</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>78</v>
@@ -28309,10 +28317,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28335,16 +28343,16 @@
         <v>90</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -28394,7 +28402,7 @@
         <v>78</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>79</v>
@@ -28426,10 +28434,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28455,10 +28463,10 @@
         <v>230</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -28509,7 +28517,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28530,7 +28538,7 @@
         <v>198</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>357</v>
@@ -28541,13 +28549,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>78</v>
@@ -28569,19 +28577,19 @@
         <v>78</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>78</v>
@@ -28630,7 +28638,7 @@
         <v>78</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>79</v>
@@ -28642,19 +28650,19 @@
         <v>207</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>78</v>
@@ -28662,10 +28670,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28777,10 +28785,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28894,13 +28902,13 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>78</v>
@@ -28922,13 +28930,13 @@
         <v>78</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29011,10 +29019,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29126,10 +29134,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29241,10 +29249,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29284,7 +29292,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>78</v>
@@ -29358,10 +29366,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29402,7 +29410,7 @@
         <v>78</v>
       </c>
       <c r="S224" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="T224" t="s" s="2">
         <v>78</v>
@@ -29421,7 +29429,7 @@
       </c>
       <c r="Y224" s="2"/>
       <c r="Z224" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>78</v>
@@ -29471,13 +29479,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>78</v>
@@ -29499,13 +29507,13 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -29588,10 +29596,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29703,10 +29711,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29820,13 +29828,13 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>78</v>
@@ -29851,7 +29859,7 @@
         <v>110</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M228" t="s" s="2">
         <v>201</v>
@@ -29937,10 +29945,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30052,10 +30060,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30167,10 +30175,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30210,7 +30218,7 @@
       </c>
       <c r="Q231" s="2"/>
       <c r="R231" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="S231" t="s" s="2">
         <v>78</v>
@@ -30284,10 +30292,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30347,7 +30355,7 @@
       </c>
       <c r="Y232" s="2"/>
       <c r="Z232" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AA232" t="s" s="2">
         <v>78</v>
@@ -30397,10 +30405,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C233" t="s" s="2">
         <v>209</v>
@@ -30428,7 +30436,7 @@
         <v>110</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M233" t="s" s="2">
         <v>201</v>
@@ -30514,10 +30522,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30629,10 +30637,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30744,10 +30752,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30861,10 +30869,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -30976,13 +30984,13 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>78</v>
@@ -31093,10 +31101,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -31208,10 +31216,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31323,10 +31331,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31366,7 +31374,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>78</v>
@@ -31440,10 +31448,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31555,13 +31563,13 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>78</v>
@@ -31586,7 +31594,7 @@
         <v>110</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M243" t="s" s="2">
         <v>201</v>
@@ -31672,10 +31680,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31787,10 +31795,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31902,10 +31910,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -31945,7 +31953,7 @@
       </c>
       <c r="Q246" s="2"/>
       <c r="R246" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S246" t="s" s="2">
         <v>78</v>
@@ -32019,10 +32027,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -32134,13 +32142,13 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>78</v>
@@ -32251,10 +32259,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32366,10 +32374,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32481,10 +32489,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32524,7 +32532,7 @@
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>78</v>
@@ -32598,10 +32606,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -32713,13 +32721,13 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>78</v>
@@ -32744,7 +32752,7 @@
         <v>110</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M253" t="s" s="2">
         <v>201</v>
@@ -32830,10 +32838,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -32945,10 +32953,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -33060,10 +33068,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -33103,7 +33111,7 @@
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="S256" t="s" s="2">
         <v>78</v>
@@ -33177,10 +33185,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -33292,13 +33300,13 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D258" t="s" s="2">
         <v>78</v>
@@ -33323,7 +33331,7 @@
         <v>110</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>201</v>
@@ -33409,10 +33417,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -33524,10 +33532,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33639,10 +33647,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -33682,7 +33690,7 @@
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="S261" t="s" s="2">
         <v>78</v>
@@ -33756,10 +33764,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -33871,10 +33879,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -33914,7 +33922,7 @@
       </c>
       <c r="Q263" s="2"/>
       <c r="R263" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="S263" t="s" s="2">
         <v>78</v>
@@ -33988,10 +33996,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -34014,7 +34022,7 @@
         <v>78</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L264" t="s" s="2">
         <v>231</v>
@@ -34103,10 +34111,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -34132,10 +34140,10 @@
         <v>175</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -34147,7 +34155,7 @@
         <v>78</v>
       </c>
       <c r="S265" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T265" t="s" s="2">
         <v>78</v>
@@ -34165,10 +34173,10 @@
         <v>315</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AA265" t="s" s="2">
         <v>78</v>
@@ -34186,7 +34194,7 @@
         <v>78</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>79</v>
@@ -34195,7 +34203,7 @@
         <v>89</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AJ265" t="s" s="2">
         <v>101</v>
@@ -34204,13 +34212,13 @@
         <v>78</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM265" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AO265" t="s" s="2">
         <v>78</v>
@@ -34218,10 +34226,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -34247,16 +34255,16 @@
         <v>103</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>78</v>
@@ -34305,7 +34313,7 @@
         <v>78</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>79</v>
@@ -34323,10 +34331,10 @@
         <v>78</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AM266" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AN266" t="s" s="2">
         <v>348</v>
@@ -34337,10 +34345,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -34366,16 +34374,16 @@
         <v>175</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P267" t="s" s="2">
         <v>78</v>
@@ -34403,10 +34411,10 @@
         <v>315</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z267" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AA267" t="s" s="2">
         <v>78</v>
@@ -34424,7 +34432,7 @@
         <v>78</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>79</v>
@@ -34442,13 +34450,13 @@
         <v>78</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AM267" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AO267" t="s" s="2">
         <v>78</v>
@@ -34456,10 +34464,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34482,16 +34490,16 @@
         <v>90</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
@@ -34541,7 +34549,7 @@
         <v>78</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>79</v>
@@ -34573,10 +34581,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -34602,10 +34610,10 @@
         <v>230</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -34656,7 +34664,7 @@
         <v>78</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>79</v>
@@ -34677,7 +34685,7 @@
         <v>198</v>
       </c>
       <c r="AM269" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN269" t="s" s="2">
         <v>357</v>
@@ -34688,10 +34696,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -34714,19 +34722,19 @@
         <v>78</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O270" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P270" t="s" s="2">
         <v>78</v>
@@ -34775,7 +34783,7 @@
         <v>78</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>79</v>
@@ -34787,19 +34795,19 @@
         <v>207</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AM270" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AN270" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AO270" t="s" s="2">
         <v>78</v>
@@ -34807,10 +34815,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -34833,17 +34841,17 @@
         <v>90</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>78</v>
@@ -34892,7 +34900,7 @@
         <v>78</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>79</v>
@@ -34910,10 +34918,10 @@
         <v>78</v>
       </c>
       <c r="AL271" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM271" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AN271" t="s" s="2">
         <v>107</v>
@@ -34924,10 +34932,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35039,10 +35047,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -35156,10 +35164,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -35185,13 +35193,13 @@
         <v>103</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" t="s" s="2">
@@ -35241,7 +35249,7 @@
         <v>78</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>79</v>
@@ -35250,7 +35258,7 @@
         <v>89</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>101</v>
@@ -35273,10 +35281,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -35302,13 +35310,13 @@
         <v>136</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="O275" s="2"/>
       <c r="P275" t="s" s="2">
@@ -35338,7 +35346,7 @@
       </c>
       <c r="Y275" s="2"/>
       <c r="Z275" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA275" t="s" s="2">
         <v>78</v>
@@ -35356,7 +35364,7 @@
         <v>78</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>79</v>
@@ -35388,10 +35396,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -35417,13 +35425,13 @@
         <v>297</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" t="s" s="2">
@@ -35473,7 +35481,7 @@
         <v>78</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>79</v>
@@ -35494,7 +35502,7 @@
         <v>78</v>
       </c>
       <c r="AM276" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AN276" t="s" s="2">
         <v>78</v>
@@ -35505,10 +35513,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -35534,13 +35542,13 @@
         <v>103</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" t="s" s="2">
@@ -35590,7 +35598,7 @@
         <v>78</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>79</v>
@@ -35622,10 +35630,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -35648,19 +35656,19 @@
         <v>78</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O278" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P278" t="s" s="2">
         <v>78</v>
@@ -35709,7 +35717,7 @@
         <v>78</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>79</v>
@@ -35730,7 +35738,7 @@
         <v>78</v>
       </c>
       <c r="AM278" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AN278" t="s" s="2">
         <v>78</v>
@@ -35741,10 +35749,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -35856,10 +35864,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -35973,14 +35981,14 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" t="s" s="2">
@@ -36002,10 +36010,10 @@
         <v>110</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="N281" t="s" s="2">
         <v>113</v>
@@ -36060,7 +36068,7 @@
         <v>78</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>79</v>
@@ -36092,10 +36100,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -36121,14 +36129,14 @@
         <v>321</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>78</v>
@@ -36156,10 +36164,10 @@
         <v>157</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="Z282" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AA282" t="s" s="2">
         <v>78</v>
@@ -36177,7 +36185,7 @@
         <v>78</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>79</v>
@@ -36198,7 +36206,7 @@
         <v>78</v>
       </c>
       <c r="AM282" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AN282" t="s" s="2">
         <v>78</v>
@@ -36209,10 +36217,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -36235,17 +36243,17 @@
         <v>78</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="P283" t="s" s="2">
         <v>78</v>
@@ -36294,7 +36302,7 @@
         <v>78</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>79</v>
@@ -36312,10 +36320,10 @@
         <v>78</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AM283" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AN283" t="s" s="2">
         <v>78</v>
@@ -36326,10 +36334,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -36352,17 +36360,17 @@
         <v>78</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P284" t="s" s="2">
         <v>78</v>
@@ -36411,7 +36419,7 @@
         <v>78</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>79</v>
@@ -36423,19 +36431,19 @@
         <v>207</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AK284" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AM284" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AO284" t="s" s="2">
         <v>78</v>
@@ -36443,10 +36451,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -36469,19 +36477,19 @@
         <v>78</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P285" t="s" s="2">
         <v>78</v>
@@ -36530,7 +36538,7 @@
         <v>78</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>79</v>
@@ -36548,13 +36556,13 @@
         <v>78</v>
       </c>
       <c r="AL285" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AM285" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AN285" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AO285" t="s" s="2">
         <v>78</v>
@@ -36562,10 +36570,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -36588,17 +36596,17 @@
         <v>78</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>78</v>
@@ -36647,7 +36655,7 @@
         <v>78</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>79</v>
